--- a/reference/Plan.xlsx
+++ b/reference/Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Coding\project management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Coding\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425BF3F-20CE-49DD-94A1-2FE309B259BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B353F8-975A-4FE7-AE21-8D0289E84CCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{36830CD4-5D0D-4EE0-AD98-5F61D0A27FB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Phase 2 - Create Model</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Integrate Live Modules with Model</t>
   </si>
   <si>
-    <t>Hidden Layer Study</t>
-  </si>
-  <si>
     <t>Initial Script Testing</t>
   </si>
   <si>
@@ -106,13 +103,61 @@
     <t>Write patcher to in-fill missing data points</t>
   </si>
   <si>
-    <t>Write indicators</t>
-  </si>
-  <si>
     <t>Define architecture for data visualisation</t>
   </si>
   <si>
-    <t>Write architecture for data visualisation</t>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Data Logging Module</t>
+  </si>
+  <si>
+    <t>Prediction Module</t>
+  </si>
+  <si>
+    <t>Indicator Module</t>
+  </si>
+  <si>
+    <t>Non-Coding</t>
+  </si>
+  <si>
+    <t>Setup FTPS Users</t>
+  </si>
+  <si>
+    <t>Write indicators module</t>
+  </si>
+  <si>
+    <t>Write base prediction module</t>
+  </si>
+  <si>
+    <t>Setup eToro account</t>
+  </si>
+  <si>
+    <t>Setup Ltd partnership?</t>
+  </si>
+  <si>
+    <t>Write data visualisation</t>
+  </si>
+  <si>
+    <t>Define variable values</t>
+  </si>
+  <si>
+    <t>Define epics to model</t>
+  </si>
+  <si>
+    <t>Define epics to analyse</t>
+  </si>
+  <si>
+    <t>Write historic data graph creator</t>
+  </si>
+  <si>
+    <t>Explore use of multiple epics in one model</t>
+  </si>
+  <si>
+    <t>Create live visualisation for trading</t>
   </si>
 </sst>
 </file>
@@ -144,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +208,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,11 +235,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -186,6 +258,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC3E5CD-980A-4F59-835A-ACF3EA83A590}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +705,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -654,7 +738,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -680,109 +764,98 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N27" s="5"/>
+      <c r="N26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -792,47 +865,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01E07AC-7931-48B7-AE21-C52B9D82EC58}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.453125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="E8" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
